--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fbln1</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fbln1</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.278327</v>
+        <v>0.306614</v>
       </c>
       <c r="H2">
-        <v>0.834981</v>
+        <v>0.919842</v>
       </c>
       <c r="I2">
-        <v>0.00399898855375788</v>
+        <v>0.004422141272453192</v>
       </c>
       <c r="J2">
-        <v>0.003998988553757881</v>
+        <v>0.004422141272453193</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>42.73127080733466</v>
+        <v>44.67388812522534</v>
       </c>
       <c r="R2">
-        <v>384.581437266012</v>
+        <v>402.0649931270281</v>
       </c>
       <c r="S2">
-        <v>0.001268561935845612</v>
+        <v>0.001267358160902469</v>
       </c>
       <c r="T2">
-        <v>0.001268561935845612</v>
+        <v>0.001267358160902469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.278327</v>
+        <v>0.306614</v>
       </c>
       <c r="H3">
-        <v>0.834981</v>
+        <v>0.919842</v>
       </c>
       <c r="I3">
-        <v>0.00399898855375788</v>
+        <v>0.004422141272453192</v>
       </c>
       <c r="J3">
-        <v>0.003998988553757881</v>
+        <v>0.004422141272453193</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>46.98151484410534</v>
+        <v>51.75635203343734</v>
       </c>
       <c r="R3">
-        <v>422.8336335969481</v>
+        <v>465.8071683009361</v>
       </c>
       <c r="S3">
-        <v>0.001394738801200541</v>
+        <v>0.001468281313331221</v>
       </c>
       <c r="T3">
-        <v>0.001394738801200541</v>
+        <v>0.001468281313331222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.278327</v>
+        <v>0.306614</v>
       </c>
       <c r="H4">
-        <v>0.834981</v>
+        <v>0.919842</v>
       </c>
       <c r="I4">
-        <v>0.00399898855375788</v>
+        <v>0.004422141272453192</v>
       </c>
       <c r="J4">
-        <v>0.003998988553757881</v>
+        <v>0.004422141272453193</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>26.041018088071</v>
+        <v>39.28527278696534</v>
       </c>
       <c r="R4">
-        <v>234.369162792639</v>
+        <v>353.567455082688</v>
       </c>
       <c r="S4">
-        <v>0.0007730789113700702</v>
+        <v>0.001114487974054957</v>
       </c>
       <c r="T4">
-        <v>0.0007730789113700703</v>
+        <v>0.001114487974054958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.278327</v>
+        <v>0.306614</v>
       </c>
       <c r="H5">
-        <v>0.834981</v>
+        <v>0.919842</v>
       </c>
       <c r="I5">
-        <v>0.00399898855375788</v>
+        <v>0.004422141272453192</v>
       </c>
       <c r="J5">
-        <v>0.003998988553757881</v>
+        <v>0.004422141272453193</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>18.95137542239667</v>
+        <v>20.163267476506</v>
       </c>
       <c r="R5">
-        <v>170.56237880157</v>
+        <v>181.469407288554</v>
       </c>
       <c r="S5">
-        <v>0.0005626089053416573</v>
+        <v>0.0005720138241645451</v>
       </c>
       <c r="T5">
-        <v>0.0005626089053416574</v>
+        <v>0.0005720138241645452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.64083733333332</v>
+        <v>66.64083733333334</v>
       </c>
       <c r="H6">
         <v>199.922512</v>
       </c>
       <c r="I6">
-        <v>0.9574922508734</v>
+        <v>0.9611276628026538</v>
       </c>
       <c r="J6">
-        <v>0.9574922508734001</v>
+        <v>0.9611276628026538</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>10231.30227005718</v>
+        <v>9709.619624676869</v>
       </c>
       <c r="R6">
-        <v>92081.72043051462</v>
+        <v>87386.57662209183</v>
       </c>
       <c r="S6">
-        <v>0.30373635908103</v>
+        <v>0.2754532051497124</v>
       </c>
       <c r="T6">
-        <v>0.3037363590810301</v>
+        <v>0.2754532051497124</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.64083733333332</v>
+        <v>66.64083733333334</v>
       </c>
       <c r="H7">
         <v>199.922512</v>
       </c>
       <c r="I7">
-        <v>0.9574922508734</v>
+        <v>0.9611276628026538</v>
       </c>
       <c r="J7">
-        <v>0.9574922508734001</v>
+        <v>0.9611276628026538</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>11248.95352732437</v>
@@ -883,10 +883,10 @@
         <v>101240.5817459193</v>
       </c>
       <c r="S7">
-        <v>0.3339473409812687</v>
+        <v>0.3191227281248702</v>
       </c>
       <c r="T7">
-        <v>0.3339473409812687</v>
+        <v>0.3191227281248702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>66.64083733333332</v>
+        <v>66.64083733333334</v>
       </c>
       <c r="H8">
         <v>199.922512</v>
       </c>
       <c r="I8">
-        <v>0.9574922508734</v>
+        <v>0.9611276628026538</v>
       </c>
       <c r="J8">
-        <v>0.9574922508734001</v>
+        <v>0.9611276628026538</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>6235.094871864858</v>
+        <v>8538.434231286843</v>
       </c>
       <c r="R8">
-        <v>56115.85384678372</v>
+        <v>76845.90808158157</v>
       </c>
       <c r="S8">
-        <v>0.1851010716834632</v>
+        <v>0.2422277253776822</v>
       </c>
       <c r="T8">
-        <v>0.1851010716834632</v>
+        <v>0.2422277253776822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>66.64083733333332</v>
+        <v>66.64083733333334</v>
       </c>
       <c r="H9">
         <v>199.922512</v>
       </c>
       <c r="I9">
-        <v>0.9574922508734</v>
+        <v>0.9611276628026538</v>
       </c>
       <c r="J9">
-        <v>0.9574922508734001</v>
+        <v>0.9611276628026538</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>4537.596161230737</v>
+        <v>4382.373368503482</v>
       </c>
       <c r="R9">
-        <v>40838.36545107664</v>
+        <v>39441.36031653135</v>
       </c>
       <c r="S9">
-        <v>0.134707479127638</v>
+        <v>0.1243240041503891</v>
       </c>
       <c r="T9">
-        <v>0.134707479127638</v>
+        <v>0.1243240041503891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.671766</v>
+        <v>2.388642</v>
       </c>
       <c r="H10">
-        <v>8.015298000000001</v>
+        <v>7.165926000000001</v>
       </c>
       <c r="I10">
-        <v>0.0383878015870522</v>
+        <v>0.03445019592489299</v>
       </c>
       <c r="J10">
-        <v>0.0383878015870522</v>
+        <v>0.03445019592489299</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>410.1936085246107</v>
+        <v>348.0269181420761</v>
       </c>
       <c r="R10">
-        <v>3691.742476721497</v>
+        <v>3132.242263278685</v>
       </c>
       <c r="S10">
-        <v>0.01217740517120685</v>
+        <v>0.009873211699969329</v>
       </c>
       <c r="T10">
-        <v>0.01217740517120685</v>
+        <v>0.009873211699969329</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.671766</v>
+        <v>2.388642</v>
       </c>
       <c r="H11">
-        <v>8.015298000000001</v>
+        <v>7.165926000000001</v>
       </c>
       <c r="I11">
-        <v>0.0383878015870522</v>
+        <v>0.03445019592489299</v>
       </c>
       <c r="J11">
-        <v>0.0383878015870522</v>
+        <v>0.03445019592489299</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>450.9933063949094</v>
+        <v>403.2020593771121</v>
       </c>
       <c r="R11">
-        <v>4058.939757554185</v>
+        <v>3628.818534394009</v>
       </c>
       <c r="S11">
-        <v>0.01338862456006196</v>
+        <v>0.01143848099838271</v>
       </c>
       <c r="T11">
-        <v>0.01338862456006196</v>
+        <v>0.01143848099838271</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.671766</v>
+        <v>2.388642</v>
       </c>
       <c r="H12">
-        <v>8.015298000000001</v>
+        <v>7.165926000000001</v>
       </c>
       <c r="I12">
-        <v>0.0383878015870522</v>
+        <v>0.03445019592489299</v>
       </c>
       <c r="J12">
-        <v>0.0383878015870522</v>
+        <v>0.03445019592489299</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>249.977568590518</v>
+        <v>306.0475143352961</v>
       </c>
       <c r="R12">
-        <v>2249.798117314662</v>
+        <v>2754.427629017664</v>
       </c>
       <c r="S12">
-        <v>0.007421076470179205</v>
+        <v>0.008682293643873344</v>
       </c>
       <c r="T12">
-        <v>0.007421076470179204</v>
+        <v>0.008682293643873344</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.671766</v>
+        <v>2.388642</v>
       </c>
       <c r="H13">
-        <v>8.015298000000001</v>
+        <v>7.165926000000001</v>
       </c>
       <c r="I13">
-        <v>0.0383878015870522</v>
+        <v>0.03445019592489299</v>
       </c>
       <c r="J13">
-        <v>0.0383878015870522</v>
+        <v>0.03445019592489299</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>181.9214108110067</v>
+        <v>157.079675264718</v>
       </c>
       <c r="R13">
-        <v>1637.292697299061</v>
+        <v>1413.717077382462</v>
       </c>
       <c r="S13">
-        <v>0.005400695385604194</v>
+        <v>0.004456209582667614</v>
       </c>
       <c r="T13">
-        <v>0.005400695385604194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.008418666666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.025256</v>
-      </c>
-      <c r="I14">
-        <v>0.0001209589857897473</v>
-      </c>
-      <c r="J14">
-        <v>0.0001209589857897474</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>153.5290173333333</v>
-      </c>
-      <c r="N14">
-        <v>460.587052</v>
-      </c>
-      <c r="O14">
-        <v>0.3172206968818489</v>
-      </c>
-      <c r="P14">
-        <v>0.3172206968818489</v>
-      </c>
-      <c r="Q14">
-        <v>1.292509620590222</v>
-      </c>
-      <c r="R14">
-        <v>11.632586585312</v>
-      </c>
-      <c r="S14">
-        <v>3.837069376634531E-05</v>
-      </c>
-      <c r="T14">
-        <v>3.837069376634532E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.008418666666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.025256</v>
-      </c>
-      <c r="I15">
-        <v>0.0001209589857897473</v>
-      </c>
-      <c r="J15">
-        <v>0.0001209589857897474</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>168.7997026666667</v>
-      </c>
-      <c r="N15">
-        <v>506.3991080000001</v>
-      </c>
-      <c r="O15">
-        <v>0.3487728915577651</v>
-      </c>
-      <c r="P15">
-        <v>0.348772891557765</v>
-      </c>
-      <c r="Q15">
-        <v>1.421068430183111</v>
-      </c>
-      <c r="R15">
-        <v>12.789615871648</v>
-      </c>
-      <c r="S15">
-        <v>4.21872152337848E-05</v>
-      </c>
-      <c r="T15">
-        <v>4.21872152337848E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.008418666666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.025256</v>
-      </c>
-      <c r="I16">
-        <v>0.0001209589857897473</v>
-      </c>
-      <c r="J16">
-        <v>0.0001209589857897474</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>93.562673</v>
-      </c>
-      <c r="N16">
-        <v>280.688019</v>
-      </c>
-      <c r="O16">
-        <v>0.1933186106880956</v>
-      </c>
-      <c r="P16">
-        <v>0.1933186106880956</v>
-      </c>
-      <c r="Q16">
-        <v>0.7876729564293333</v>
-      </c>
-      <c r="R16">
-        <v>7.089056607864</v>
-      </c>
-      <c r="S16">
-        <v>2.338362308311506E-05</v>
-      </c>
-      <c r="T16">
-        <v>2.338362308311506E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.008418666666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.025256</v>
-      </c>
-      <c r="I17">
-        <v>0.0001209589857897473</v>
-      </c>
-      <c r="J17">
-        <v>0.0001209589857897474</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>68.09032333333334</v>
-      </c>
-      <c r="N17">
-        <v>204.27097</v>
-      </c>
-      <c r="O17">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="P17">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="Q17">
-        <v>0.573229735368889</v>
-      </c>
-      <c r="R17">
-        <v>5.159067618320001</v>
-      </c>
-      <c r="S17">
-        <v>1.701745370650218E-05</v>
-      </c>
-      <c r="T17">
-        <v>1.701745370650218E-05</v>
+        <v>0.004456209582667614</v>
       </c>
     </row>
   </sheetData>
